--- a/conf-core/src/main/webapp/resources/import-templates/ccdb_devices.xlsx
+++ b/conf-core/src/main/webapp/resources/import-templates/ccdb_devices.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ESS\Documents\CCDB-Import-templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -57,15 +52,9 @@
     <t>European Spallation Source (ESS)</t>
   </si>
   <si>
-    <t>2015/MAY/06</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -81,9 +70,6 @@
     <t>Total property names</t>
   </si>
   <si>
-    <t>Template file to import devices in the CCDB</t>
-  </si>
-  <si>
     <t>DEVICE</t>
   </si>
   <si>
@@ -91,6 +77,21 @@
   </si>
   <si>
     <t>Total inventory IDs</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
+  </si>
+  <si>
+    <t>2016/JAN/14</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Template file to import/export devices to/from the CCDB</t>
   </si>
 </sst>
 </file>
@@ -106,17 +107,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,37 +224,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,9 +264,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -312,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1">
-        <f xml:space="preserve"> COUNTIF(C10:C65536, "*")</f>
+        <f xml:space="preserve"> COUNTIF(C11:C65536, "*")</f>
         <v>0</v>
       </c>
     </row>
@@ -586,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <f xml:space="preserve"> SUMPRODUCT((D10:D65536 &lt;&gt; "") / COUNTIF(D10:D65536, D10:D65536 &amp; ""))</f>
+        <f xml:space="preserve"> SUMPRODUCT((D11:D65536 &lt;&gt; "") / COUNTIF(D11:D65536, D11:D65536 &amp; ""))</f>
         <v>0</v>
       </c>
     </row>
@@ -601,13 +601,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> COUNTIF(A10:A65536, "CREATE DEVICE")</f>
+        <f xml:space="preserve"> COUNTIF(A11:A65536, "CREATE DEVICE")</f>
         <v>0</v>
       </c>
     </row>
@@ -622,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <f xml:space="preserve"> COUNTIF(A10:A65536, "UPDATE DEVICE") + COUNTIF(A10:A65536, "UPDATE PROPERTY")</f>
+        <f xml:space="preserve"> COUNTIF(A11:A65536, "UPDATE DEVICE") + COUNTIF(A11:A65536, "UPDATE PROPERTY")</f>
         <v>0</v>
       </c>
     </row>
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f xml:space="preserve"> COUNTIF(A10:A65536, "DELETE DEVICE") + COUNTIF(A10:A65536, "DELETE PROPERTY")</f>
+        <f xml:space="preserve"> COUNTIF(A11:A65536, "DELETE DEVICE") + COUNTIF(A11:A65536, "DELETE PROPERTY")</f>
         <v>0</v>
       </c>
     </row>
@@ -646,85 +646,82 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="D10" s="4"/>
-    </row>
     <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="6"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="6"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-    </row>
-    <row r="17" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-    </row>
-    <row r="18" spans="1:1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="D9 D8:E8 C9 E9 B8:B9 A8:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="D10 D9:E9 C10 E10 B9:B10 A9:A10"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A1048576">
       <formula1>"CREATE DEVICE,UPDATE DEVICE,DELETE DEVICE,UPDATE PROPERTY,DELETE PROPERTY"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>